--- a/data-raw/EMF37_data_template_R2_v2.xlsx
+++ b/data-raw/EMF37_data_template_R2_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sweisberg\Documents\LEEP\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6667DD-EDE8-4B41-8A73-E43942733783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A145632-93C3-48A9-8DD0-684AEA2D652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="3421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="3441">
   <si>
     <t>Round</t>
   </si>
@@ -10300,6 +10300,66 @@
   </si>
   <si>
     <t>More final energy</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Hydro|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Hydro|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Nuclear|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Nuclear|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Solar|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Solar|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Wind|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Wind|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Storage Capacity|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Storage Capacity|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Addition/Retirement Averages</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Gas|w/o CCS|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Gas|w/ CCS|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Gas|w/o CCS|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Gas|w/ CCS|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Coal|w/o CCS|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Additions|Electricity|Coal|w/ CCS|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Coal|w/o CCS|Average 2021-2035</t>
+  </si>
+  <si>
+    <t>Capacity Retirements|Electricity|Coal|w/ CCS|Average 2021-2035</t>
   </si>
 </sst>
 </file>
@@ -11140,10 +11200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1729"/>
+  <dimension ref="A1:F1747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1697" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1729" sqref="D1729"/>
+    <sheetView tabSelected="1" topLeftCell="A1715" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1730" sqref="D1730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45734,6 +45794,366 @@
       </c>
       <c r="F1729" t="s">
         <v>3420</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1730">
+        <v>2</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1730">
+        <v>3</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1731">
+        <v>2</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1731">
+        <v>3</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>3434</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1732">
+        <v>2</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1732">
+        <v>3</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1733">
+        <v>2</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1733">
+        <v>3</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1734">
+        <v>2</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1734">
+        <v>3</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1735">
+        <v>2</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1735">
+        <v>3</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>3438</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1736">
+        <v>2</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1736">
+        <v>3</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1737">
+        <v>2</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1737">
+        <v>3</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1738">
+        <v>2</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1738">
+        <v>3</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>3421</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1739">
+        <v>2</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1739">
+        <v>3</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1740">
+        <v>2</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1740">
+        <v>3</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>3423</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1741">
+        <v>2</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1741">
+        <v>3</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>3424</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1742">
+        <v>2</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1742">
+        <v>3</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1743">
+        <v>2</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1743">
+        <v>3</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1744">
+        <v>2</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1744">
+        <v>3</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1745">
+        <v>2</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1745">
+        <v>3</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1746">
+        <v>2</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1746">
+        <v>3</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>3429</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1747">
+        <v>2</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1747">
+        <v>3</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>3431</v>
       </c>
     </row>
   </sheetData>
